--- a/excel3.xlsx
+++ b/excel3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="entreprise" sheetId="7" r:id="rId1"/>
@@ -768,7 +768,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -779,10 +779,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1104,8 +1101,8 @@
   <sheetPr/>
   <dimension ref="B2:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1141,7 +1138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="316.8" spans="2:9">
+    <row r="3" ht="19" customHeight="1" spans="2:9">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -1163,7 +1160,7 @@
       <c r="H3">
         <v>244.4</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1300,7 +1297,7 @@
   <sheetPr/>
   <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
